--- a/JAVASCRIPT.xlsx
+++ b/JAVASCRIPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev_yous\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev_yous\Desktop\Javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC698AC-E32C-42E5-9CB8-4A12A913ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEB4AA-9558-41A6-B85C-D18EE333D07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CA019B23-3757-4175-B180-E8A235151D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA019B23-3757-4175-B180-E8A235151D59}"/>
   </bookViews>
   <sheets>
     <sheet name="BASICS" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -590,6 +596,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -907,20 +919,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8BDA4-8BC0-426C-9FE3-E77EE7435A5F}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -931,7 +943,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -964,7 +976,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -992,7 +1004,7 @@
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1753,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152D71DA-8612-4538-B1D1-0AB8CE98E091}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A65" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2E1342-2940-470B-885C-C63694AF5F91}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
